--- a/Hospitais/extraidos/hospitais_abril.xlsx
+++ b/Hospitais/extraidos/hospitais_abril.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>código</t>
   </si>
@@ -28,6 +28,12 @@
     <t>porcentagem</t>
   </si>
   <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -40,9 +46,6 @@
     <t>1.4</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
     <t>4.2</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -106,9 +106,6 @@
     <t>Indisponibilidade de leito para internação hospitalar (ilh)</t>
   </si>
   <si>
-    <t>Subistituição de paciente</t>
-  </si>
-  <si>
     <t>Pré-operatório incompleto (poi)</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>Não internação hospitalar (nih)</t>
   </si>
   <si>
-    <t>Inesperada condição do paciente (icp):gravidez, tornozeleira...</t>
-  </si>
-  <si>
     <t>Falta de material cirúrgico (fmc)</t>
   </si>
   <si>
@@ -163,13 +157,13 @@
     <t>1.13%</t>
   </si>
   <si>
+    <t>1.50%</t>
+  </si>
+  <si>
     <t>0.75%</t>
   </si>
   <si>
     <t>3.01%</t>
-  </si>
-  <si>
-    <t>1.50%</t>
   </si>
   <si>
     <t>3.38%</t>
@@ -590,11 +584,8 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -605,13 +596,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -622,13 +610,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -639,10 +627,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>48</v>
@@ -656,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -673,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -690,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -707,13 +695,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -724,13 +712,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -741,13 +729,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -758,13 +746,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,13 +763,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -792,13 +780,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -812,10 +800,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -829,10 +817,10 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -846,10 +834,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -863,10 +851,10 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -880,10 +868,10 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -897,10 +885,10 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -914,10 +902,10 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -931,10 +919,10 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -948,10 +936,10 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Hospitais/extraidos/hospitais_abril.xlsx
+++ b/Hospitais/extraidos/hospitais_abril.xlsx
@@ -28,12 +28,12 @@
     <t>porcentagem</t>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
     <t>4.3</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -154,10 +154,10 @@
     <t>MISCELÂNIA</t>
   </si>
   <si>
+    <t>1.50%</t>
+  </si>
+  <si>
     <t>1.13%</t>
-  </si>
-  <si>
-    <t>1.50%</t>
   </si>
   <si>
     <t>0.75%</t>
@@ -582,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>46</v>
@@ -596,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
@@ -616,7 +616,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -667,7 +667,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -735,7 +735,7 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -752,7 +752,7 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5">
